--- a/ResourceLibrary/Documents/PublicEntrantList.xlsx
+++ b/ResourceLibrary/Documents/PublicEntrantList.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Ф.И.О.</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Категория приёма</t>
   </si>
   <si>
-    <t>Приоритет</t>
-  </si>
-  <si>
     <t>Балл</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
   </si>
   <si>
     <t>FinSource</t>
-  </si>
-  <si>
-    <t>Priority</t>
   </si>
   <si>
     <t>Score</t>
@@ -67,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,9 +115,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -132,6 +123,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -144,6 +138,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -192,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,7 +224,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,95 +433,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.23622047244094488" right="0.23622047244094488" top="0.23622047244094488" bottom="0.23622047244094488" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -537,7 +527,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -549,7 +539,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
